--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-17_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-17_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Talulah" gives up her disguise, and stops working her tricks on Ch'en and Amiya. Amiya and Ch'en now face one of the most powerful forces of will Ursus has ever birthed. The decisive battle is upon them.
+    <t xml:space="preserve">'Talulah' gives up her disguise, and stops working her tricks on Ch'en and Amiya. Amiya and Ch'en now face one of the most powerful forces of will Ursus has ever birthed. The decisive battle is upon them.
 </t>
   </si>
   <si>
